--- a/LR3/table_1_80.xlsx
+++ b/LR3/table_1_80.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79872\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FB289D-2B2A-424A-A504-44253C7B0250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F294C0-790A-4326-B250-88D5521C3E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFA9CA84-5987-4045-B24F-9DA0184FA81E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -236,14 +236,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -568,7 +565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDDE94F-463A-41AC-80A3-881C15FD3A0B}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -585,7 +584,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="4">
+      <c r="A1" s="3">
         <v>80</v>
       </c>
     </row>
@@ -593,39 +592,39 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -642,10 +641,10 @@
         <f>C3*D3</f>
         <v>6160</v>
       </c>
-      <c r="F3" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="4">
         <v>44805</v>
       </c>
       <c r="H3" s="1">
@@ -665,7 +664,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <f>A3+1</f>
         <v>2</v>
       </c>
@@ -684,11 +683,11 @@
         <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>6116</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f>$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -699,7 +698,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J39" si="3">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
@@ -708,8 +707,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <f t="shared" ref="A5:A39" si="5">A4+1</f>
+      <c r="A5" s="3">
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -727,11 +726,11 @@
         <f t="shared" si="1"/>
         <v>6072</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f t="shared" ref="F5:F38" si="7">$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -751,7 +750,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -770,11 +769,11 @@
         <f t="shared" si="1"/>
         <v>6028</v>
       </c>
-      <c r="F6" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="4">
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -794,7 +793,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -813,11 +812,11 @@
         <f t="shared" si="1"/>
         <v>5984</v>
       </c>
-      <c r="F7" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="4">
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -837,7 +836,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -856,11 +855,11 @@
         <f t="shared" si="1"/>
         <v>5940</v>
       </c>
-      <c r="F8" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="4">
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -880,7 +879,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -899,11 +898,11 @@
         <f t="shared" si="1"/>
         <v>5896</v>
       </c>
-      <c r="F9" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="4">
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -923,7 +922,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
@@ -942,11 +941,11 @@
         <f t="shared" si="1"/>
         <v>5852</v>
       </c>
-      <c r="F10" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="4">
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -966,7 +965,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
@@ -985,11 +984,11 @@
         <f t="shared" si="1"/>
         <v>5808</v>
       </c>
-      <c r="F11" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="4">
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -1009,7 +1008,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
@@ -1028,11 +1027,11 @@
         <f t="shared" si="1"/>
         <v>5764</v>
       </c>
-      <c r="F12" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="4">
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1052,7 +1051,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
@@ -1071,11 +1070,11 @@
         <f t="shared" si="1"/>
         <v>5720</v>
       </c>
-      <c r="F13" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="4">
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1095,7 +1094,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
@@ -1114,11 +1113,11 @@
         <f t="shared" si="1"/>
         <v>5676</v>
       </c>
-      <c r="F14" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="4">
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1138,7 +1137,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
@@ -1157,11 +1156,11 @@
         <f t="shared" si="1"/>
         <v>5632</v>
       </c>
-      <c r="F15" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="4">
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1181,7 +1180,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
@@ -1200,11 +1199,11 @@
         <f t="shared" si="1"/>
         <v>5588</v>
       </c>
-      <c r="F16" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="4">
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1224,7 +1223,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
@@ -1243,11 +1242,11 @@
         <f t="shared" si="1"/>
         <v>5544</v>
       </c>
-      <c r="F17" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="4">
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1267,7 +1266,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
@@ -1286,11 +1285,11 @@
         <f t="shared" si="1"/>
         <v>5500</v>
       </c>
-      <c r="F18" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="4">
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1310,7 +1309,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
@@ -1329,11 +1328,11 @@
         <f t="shared" si="1"/>
         <v>5456</v>
       </c>
-      <c r="F19" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="4">
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1353,7 +1352,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
@@ -1372,11 +1371,11 @@
         <f t="shared" si="1"/>
         <v>5412</v>
       </c>
-      <c r="F20" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="4">
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1396,7 +1395,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
@@ -1415,11 +1414,11 @@
         <f t="shared" si="1"/>
         <v>5368</v>
       </c>
-      <c r="F21" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="4">
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1439,7 +1438,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
@@ -1458,11 +1457,11 @@
         <f t="shared" si="1"/>
         <v>5324</v>
       </c>
-      <c r="F22" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="4">
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1482,7 +1481,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
@@ -1501,11 +1500,11 @@
         <f t="shared" si="1"/>
         <v>5280</v>
       </c>
-      <c r="F23" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="4">
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1525,7 +1524,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
@@ -1544,11 +1543,11 @@
         <f t="shared" si="1"/>
         <v>5236</v>
       </c>
-      <c r="F24" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="4">
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1568,7 +1567,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
@@ -1587,11 +1586,11 @@
         <f t="shared" si="1"/>
         <v>5192</v>
       </c>
-      <c r="F25" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="4">
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1611,7 +1610,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
@@ -1630,11 +1629,11 @@
         <f t="shared" si="1"/>
         <v>5148</v>
       </c>
-      <c r="F26" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="4">
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1654,7 +1653,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
@@ -1673,11 +1672,11 @@
         <f t="shared" si="1"/>
         <v>5104</v>
       </c>
-      <c r="F27" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="4">
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1697,7 +1696,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
@@ -1716,11 +1715,11 @@
         <f t="shared" si="1"/>
         <v>5060</v>
       </c>
-      <c r="F28" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="F28" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="4">
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1740,7 +1739,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
@@ -1759,11 +1758,11 @@
         <f t="shared" si="1"/>
         <v>5016</v>
       </c>
-      <c r="F29" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F29" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="4">
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1783,7 +1782,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
@@ -1802,11 +1801,11 @@
         <f t="shared" si="1"/>
         <v>4972</v>
       </c>
-      <c r="F30" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="4">
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1826,7 +1825,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
@@ -1845,11 +1844,11 @@
         <f t="shared" si="1"/>
         <v>4928</v>
       </c>
-      <c r="F31" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="4">
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1869,7 +1868,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
@@ -1888,11 +1887,11 @@
         <f t="shared" si="1"/>
         <v>4884</v>
       </c>
-      <c r="F32" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="4">
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1912,7 +1911,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
@@ -1931,11 +1930,11 @@
         <f t="shared" si="1"/>
         <v>4840</v>
       </c>
-      <c r="F33" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="4">
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1955,7 +1954,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
@@ -1974,11 +1973,11 @@
         <f t="shared" si="1"/>
         <v>4796</v>
       </c>
-      <c r="F34" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="F34" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="4">
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1998,7 +1997,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
@@ -2017,11 +2016,11 @@
         <f t="shared" si="1"/>
         <v>2376</v>
       </c>
-      <c r="F35" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="F35" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="4">
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2041,7 +2040,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
@@ -2060,11 +2059,11 @@
         <f t="shared" si="1"/>
         <v>2354</v>
       </c>
-      <c r="F36" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="4">
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2084,7 +2083,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
@@ -2103,11 +2102,11 @@
         <f t="shared" si="1"/>
         <v>2332</v>
       </c>
-      <c r="F37" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F37" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="4">
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2127,7 +2126,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
@@ -2146,11 +2145,11 @@
         <f t="shared" si="1"/>
         <v>2310</v>
       </c>
-      <c r="F38" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="F38" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="4">
         <v>44840</v>
       </c>
       <c r="H38" s="1">

--- a/LR3/table_1_80.xlsx
+++ b/LR3/table_1_80.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F294C0-790A-4326-B250-88D5521C3E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0004DA-30BC-4C77-86BE-413EBD3A2CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFA9CA84-5987-4045-B24F-9DA0184FA81E}"/>
   </bookViews>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDDE94F-463A-41AC-80A3-881C15FD3A0B}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -634,7 +634,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>$A$1*1.1</f>
+        <f>A1*1.1</f>
         <v>88</v>
       </c>
       <c r="E3" s="1">
@@ -648,7 +648,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3&lt;F3,0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -676,11 +676,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
+        <f>D3</f>
         <v>88</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>6116</v>
       </c>
       <c r="F4" s="4">
@@ -691,39 +691,39 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>6116</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <f t="shared" ref="A5:A38" si="5">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D38" si="6">D4</f>
         <v>88</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6072</v>
       </c>
       <c r="F5" s="4">
@@ -734,39 +734,39 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6072</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6028</v>
       </c>
       <c r="F6" s="4">
@@ -777,39 +777,39 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6028</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5984</v>
       </c>
       <c r="F7" s="4">
@@ -820,39 +820,39 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5984</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5940</v>
       </c>
       <c r="F8" s="4">
@@ -863,39 +863,39 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5940</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5896</v>
       </c>
       <c r="F9" s="4">
@@ -906,39 +906,39 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5896</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5852</v>
       </c>
       <c r="F10" s="4">
@@ -949,39 +949,39 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5852</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5808</v>
       </c>
       <c r="F11" s="4">
@@ -992,39 +992,39 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5808</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5764</v>
       </c>
       <c r="F12" s="4">
@@ -1035,39 +1035,39 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5774</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5720</v>
       </c>
       <c r="F13" s="4">
@@ -1078,39 +1078,39 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5740</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5676</v>
       </c>
       <c r="F14" s="4">
@@ -1121,39 +1121,39 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5706</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5632</v>
       </c>
       <c r="F15" s="4">
@@ -1164,39 +1164,39 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5672</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5588</v>
       </c>
       <c r="F16" s="4">
@@ -1207,39 +1207,39 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5638</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5544</v>
       </c>
       <c r="F17" s="4">
@@ -1250,39 +1250,39 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5604</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5500</v>
       </c>
       <c r="F18" s="4">
@@ -1293,39 +1293,39 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5570</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5456</v>
       </c>
       <c r="F19" s="4">
@@ -1336,39 +1336,39 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5536</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5412</v>
       </c>
       <c r="F20" s="4">
@@ -1379,39 +1379,39 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5502</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5368</v>
       </c>
       <c r="F21" s="4">
@@ -1422,39 +1422,39 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5468</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5324</v>
       </c>
       <c r="F22" s="4">
@@ -1465,39 +1465,39 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5434</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5280</v>
       </c>
       <c r="F23" s="4">
@@ -1508,39 +1508,39 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5400</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5236</v>
       </c>
       <c r="F24" s="4">
@@ -1551,39 +1551,39 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5366</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5192</v>
       </c>
       <c r="F25" s="4">
@@ -1594,39 +1594,39 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5332</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5148</v>
       </c>
       <c r="F26" s="4">
@@ -1637,39 +1637,39 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5298</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5104</v>
       </c>
       <c r="F27" s="4">
@@ -1680,39 +1680,39 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5264</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5060</v>
       </c>
       <c r="F28" s="4">
@@ -1723,39 +1723,39 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5230</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5016</v>
       </c>
       <c r="F29" s="4">
@@ -1766,39 +1766,39 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5196</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4972</v>
       </c>
       <c r="F30" s="4">
@@ -1809,39 +1809,39 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5162</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4928</v>
       </c>
       <c r="F31" s="4">
@@ -1852,39 +1852,39 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5128</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4884</v>
       </c>
       <c r="F32" s="4">
@@ -1895,39 +1895,39 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5094</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4840</v>
       </c>
       <c r="F33" s="4">
@@ -1938,39 +1938,39 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5060</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4796</v>
       </c>
       <c r="F34" s="4">
@@ -1981,40 +1981,40 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5026</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$A$1*0.55</f>
-        <v>44</v>
+        <f>D34/3</f>
+        <v>29.333333333333332</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
-        <v>2376</v>
+        <f t="shared" si="0"/>
+        <v>1584</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" si="7"/>
@@ -2024,40 +2024,40 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="4"/>
-        <v>2616</v>
+        <f t="shared" si="3"/>
+        <v>1824</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="8">$A$1*0.55</f>
-        <v>44</v>
+        <f>D34/3</f>
+        <v>29.333333333333332</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
-        <v>2354</v>
+        <f t="shared" si="0"/>
+        <v>1569.3333333333333</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" si="7"/>
@@ -2067,40 +2067,40 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="4"/>
-        <v>2604</v>
+        <f t="shared" si="3"/>
+        <v>1819.3333333333333</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="8"/>
-        <v>44</v>
+        <f>D34/3</f>
+        <v>29.333333333333332</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
-        <v>2332</v>
+        <f t="shared" si="0"/>
+        <v>1554.6666666666665</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" si="7"/>
@@ -2110,40 +2110,40 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="4"/>
-        <v>2592</v>
+        <f t="shared" si="3"/>
+        <v>1814.6666666666665</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="8"/>
-        <v>44</v>
+        <f>D34/3</f>
+        <v>29.333333333333332</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
-        <v>2310</v>
+        <f t="shared" si="0"/>
+        <v>1540</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" si="7"/>
@@ -2153,19 +2153,19 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="4"/>
-        <v>2580</v>
+        <f t="shared" si="3"/>
+        <v>1810</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2173,8 +2173,8 @@
         <v>47</v>
       </c>
       <c r="C40" s="1">
-        <f>SUM(K3:K38)</f>
-        <v>188448</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>185324</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">

--- a/LR3/table_1_80.xlsx
+++ b/LR3/table_1_80.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0004DA-30BC-4C77-86BE-413EBD3A2CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CFE74A-3349-4F31-8C3E-95B547BE2F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFA9CA84-5987-4045-B24F-9DA0184FA81E}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
-    <t>№ Квартиры</t>
-  </si>
-  <si>
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>Торощина</t>
   </si>
   <si>
-    <t>Площадь, кв. м.</t>
-  </si>
-  <si>
     <t>Тариф, руб.</t>
   </si>
   <si>
@@ -164,18 +158,12 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t>Итого</t>
-  </si>
-  <si>
     <t>Общая сумма, руб.</t>
   </si>
   <si>
@@ -186,6 +174,18 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>№ квартиры</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDDE94F-463A-41AC-80A3-881C15FD3A0B}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -579,8 +579,9 @@
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -590,37 +591,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -628,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -669,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -712,14 +713,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D38" si="6">D4</f>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>88</v>
       </c>
       <c r="E5" s="1">
@@ -755,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -798,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -841,7 +842,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -884,7 +885,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -927,7 +928,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -970,7 +971,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -1013,7 +1014,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1056,7 +1057,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1099,7 +1100,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1142,7 +1143,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1185,7 +1186,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1228,7 +1229,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1271,7 +1272,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1314,7 +1315,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1357,7 +1358,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1390,7 +1391,7 @@
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="3"/>
+        <f>E20+J20</f>
         <v>5502</v>
       </c>
     </row>
@@ -1400,7 +1401,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1443,7 +1444,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1486,7 +1487,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1529,7 +1530,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1572,7 +1573,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1615,7 +1616,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1658,7 +1659,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1701,7 +1702,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1744,7 +1745,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1787,7 +1788,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1830,7 +1831,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1873,7 +1874,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1916,7 +1917,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1959,7 +1960,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -1970,7 +1971,7 @@
         <v>88</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
+        <f>C34*D34</f>
         <v>4796</v>
       </c>
       <c r="F34" s="4">
@@ -2002,19 +2003,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>D34/3</f>
-        <v>29.333333333333332</v>
+        <f>D3/2</f>
+        <v>44</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
-        <v>1584</v>
+        <f>C35*D35</f>
+        <v>2376</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" si="7"/>
@@ -2035,8 +2036,8 @@
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="3"/>
-        <v>1824</v>
+        <f>E35+J35</f>
+        <v>2616</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2045,19 +2046,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f>D34/3</f>
-        <v>29.333333333333332</v>
+        <f t="shared" ref="D36:D38" si="8">D4/2</f>
+        <v>44</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
-        <v>1569.3333333333333</v>
+        <f t="shared" ref="E36:E38" si="9">C36*D36</f>
+        <v>2354</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" si="7"/>
@@ -2079,7 +2080,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>1819.3333333333333</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2088,19 +2089,19 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f>D34/3</f>
-        <v>29.333333333333332</v>
+        <f t="shared" si="8"/>
+        <v>44</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
-        <v>1554.6666666666665</v>
+        <f t="shared" si="9"/>
+        <v>2332</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" si="7"/>
@@ -2121,8 +2122,8 @@
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="3"/>
-        <v>1814.6666666666665</v>
+        <f>E37+J37</f>
+        <v>2592</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2131,19 +2132,19 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f>D34/3</f>
-        <v>29.333333333333332</v>
+        <f t="shared" si="8"/>
+        <v>44</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="0"/>
-        <v>1540</v>
+        <f t="shared" si="9"/>
+        <v>2310</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" si="7"/>
@@ -2165,21 +2166,21 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>1810</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>185324</v>
+        <v>188448</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2188,7 +2189,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2197,7 +2198,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(E3:E38)</f>

--- a/LR3/table_1_80.xlsx
+++ b/LR3/table_1_80.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CFE74A-3349-4F31-8C3E-95B547BE2F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A798957F-FE46-4981-9189-D6351053033D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFA9CA84-5987-4045-B24F-9DA0184FA81E}"/>
   </bookViews>
@@ -167,9 +167,6 @@
     <t>Общая сумма, руб.</t>
   </si>
   <si>
-    <t>Средняя площадь, кв. м.</t>
-  </si>
-  <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
@@ -185,7 +182,10 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Пени за 1 день, руб.</t>
+    <t>Пени за 1 день</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -591,13 +591,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>37</v>
@@ -615,13 +615,13 @@
         <v>41</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -681,7 +681,7 @@
         <v>88</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E33" si="0">C4*D4</f>
         <v>6116</v>
       </c>
       <c r="F4" s="4">
@@ -2180,7 +2180,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(E3:E38)</f>

--- a/LR3/table_1_80.xlsx
+++ b/LR3/table_1_80.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A798957F-FE46-4981-9189-D6351053033D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923CA06A-A29F-4076-A832-A89E954657A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFA9CA84-5987-4045-B24F-9DA0184FA81E}"/>
   </bookViews>
@@ -170,9 +170,6 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма, руб.</t>
-  </si>
-  <si>
     <t>№ квартиры</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб./кв.м.</t>
   </si>
 </sst>
 </file>
@@ -210,7 +210,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF282C34"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -246,9 +246,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -566,7 +564,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -591,13 +589,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>37</v>
@@ -615,13 +613,13 @@
         <v>41</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2180,7 +2178,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2198,7 +2196,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(E3:E38)</f>

--- a/LR3/table_1_80.xlsx
+++ b/LR3/table_1_80.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923CA06A-A29F-4076-A832-A89E954657A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7CAE11-DAE7-4753-8988-6D4BAC1D5CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFA9CA84-5987-4045-B24F-9DA0184FA81E}"/>
   </bookViews>
@@ -146,12 +146,6 @@
     <t>Торощина</t>
   </si>
   <si>
-    <t>Тариф, руб.</t>
-  </si>
-  <si>
-    <t>Сумма, руб./кв.м.</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
@@ -179,13 +173,19 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальная сумма, руб./кв.м.</t>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
   </si>
 </sst>
 </file>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDDE94F-463A-41AC-80A3-881C15FD3A0B}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -572,7 +572,7 @@
     <col min="1" max="1" width="13.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
@@ -589,37 +589,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1342,7 +1342,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f>H19*I19</f>
         <v>80</v>
       </c>
       <c r="K19" s="1">
@@ -2169,7 +2169,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(E3:E38)</f>

--- a/LR3/table_1_80.xlsx
+++ b/LR3/table_1_80.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7CAE11-DAE7-4753-8988-6D4BAC1D5CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D296E5DA-C2D3-453F-9FC0-E1A33CB8A6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFA9CA84-5987-4045-B24F-9DA0184FA81E}"/>
   </bookViews>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDDE94F-463A-41AC-80A3-881C15FD3A0B}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -687,7 +687,8 @@
         <v>44813</v>
       </c>
       <c r="G4" s="4">
-        <v>44806</v>
+        <f>G3+2</f>
+        <v>44807</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
@@ -730,7 +731,8 @@
         <v>44813</v>
       </c>
       <c r="G5" s="4">
-        <v>44807</v>
+        <f t="shared" ref="G5:G38" si="8">G4+2</f>
+        <v>44809</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
@@ -773,7 +775,8 @@
         <v>44813</v>
       </c>
       <c r="G6" s="4">
-        <v>44808</v>
+        <f t="shared" si="8"/>
+        <v>44811</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
@@ -816,7 +819,8 @@
         <v>44813</v>
       </c>
       <c r="G7" s="4">
-        <v>44809</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="1"/>
@@ -859,22 +863,23 @@
         <v>44813</v>
       </c>
       <c r="G8" s="4">
-        <v>44810</v>
+        <f t="shared" si="8"/>
+        <v>44815</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1">
         <v>10</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="3"/>
-        <v>5940</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -902,22 +907,23 @@
         <v>44813</v>
       </c>
       <c r="G9" s="4">
-        <v>44811</v>
+        <f t="shared" si="8"/>
+        <v>44817</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="3"/>
-        <v>5896</v>
+        <v>5936</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -945,22 +951,23 @@
         <v>44813</v>
       </c>
       <c r="G10" s="4">
-        <v>44812</v>
+        <f t="shared" si="8"/>
+        <v>44819</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I10" s="1">
         <v>10</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="3"/>
-        <v>5852</v>
+        <v>5912</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -988,22 +995,23 @@
         <v>44813</v>
       </c>
       <c r="G11" s="4">
-        <v>44813</v>
+        <f t="shared" si="8"/>
+        <v>44821</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>5808</v>
+        <v>5888</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1031,22 +1039,23 @@
         <v>44813</v>
       </c>
       <c r="G12" s="4">
-        <v>44814</v>
+        <f t="shared" si="8"/>
+        <v>44823</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="3"/>
-        <v>5774</v>
+        <v>5864</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1074,22 +1083,23 @@
         <v>44813</v>
       </c>
       <c r="G13" s="4">
-        <v>44815</v>
+        <f t="shared" si="8"/>
+        <v>44825</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I13" s="1">
         <v>10</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>5740</v>
+        <v>5840</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1117,22 +1127,23 @@
         <v>44813</v>
       </c>
       <c r="G14" s="4">
-        <v>44816</v>
+        <f t="shared" si="8"/>
+        <v>44827</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I14" s="1">
         <v>10</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>5706</v>
+        <v>5816</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1160,22 +1171,23 @@
         <v>44813</v>
       </c>
       <c r="G15" s="4">
-        <v>44817</v>
+        <f t="shared" si="8"/>
+        <v>44829</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I15" s="1">
         <v>10</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="3"/>
-        <v>5672</v>
+        <v>5792</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1203,22 +1215,23 @@
         <v>44813</v>
       </c>
       <c r="G16" s="4">
-        <v>44818</v>
+        <f t="shared" si="8"/>
+        <v>44831</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I16" s="1">
         <v>10</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="3"/>
-        <v>5638</v>
+        <v>5768</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1246,22 +1259,23 @@
         <v>44813</v>
       </c>
       <c r="G17" s="4">
-        <v>44819</v>
+        <f t="shared" si="8"/>
+        <v>44833</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="3"/>
-        <v>5604</v>
+        <v>5744</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1289,22 +1303,23 @@
         <v>44813</v>
       </c>
       <c r="G18" s="4">
-        <v>44820</v>
+        <f t="shared" si="8"/>
+        <v>44835</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I18" s="1">
         <v>10</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="3"/>
-        <v>5570</v>
+        <v>5720</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1332,22 +1347,23 @@
         <v>44813</v>
       </c>
       <c r="G19" s="4">
-        <v>44821</v>
+        <f t="shared" si="8"/>
+        <v>44837</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I19" s="1">
         <v>10</v>
       </c>
       <c r="J19" s="1">
         <f>H19*I19</f>
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>5536</v>
+        <v>5696</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1375,22 +1391,23 @@
         <v>44813</v>
       </c>
       <c r="G20" s="4">
-        <v>44822</v>
+        <f t="shared" si="8"/>
+        <v>44839</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I20" s="1">
         <v>10</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="K20" s="1">
         <f>E20+J20</f>
-        <v>5502</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1418,22 +1435,23 @@
         <v>44813</v>
       </c>
       <c r="G21" s="4">
-        <v>44823</v>
+        <f t="shared" si="8"/>
+        <v>44841</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I21" s="1">
         <v>10</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="3"/>
-        <v>5468</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1461,22 +1479,23 @@
         <v>44813</v>
       </c>
       <c r="G22" s="4">
-        <v>44824</v>
+        <f t="shared" si="8"/>
+        <v>44843</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="3"/>
-        <v>5434</v>
+        <v>5624</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1504,22 +1523,23 @@
         <v>44813</v>
       </c>
       <c r="G23" s="4">
-        <v>44825</v>
+        <f t="shared" si="8"/>
+        <v>44845</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I23" s="1">
         <v>10</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="3"/>
-        <v>5400</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1547,22 +1567,23 @@
         <v>44813</v>
       </c>
       <c r="G24" s="4">
-        <v>44826</v>
+        <f t="shared" si="8"/>
+        <v>44847</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I24" s="1">
         <v>10</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>340</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="3"/>
-        <v>5366</v>
+        <v>5576</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1590,22 +1611,23 @@
         <v>44813</v>
       </c>
       <c r="G25" s="4">
-        <v>44827</v>
+        <f t="shared" si="8"/>
+        <v>44849</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I25" s="1">
         <v>10</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>360</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="3"/>
-        <v>5332</v>
+        <v>5552</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1633,22 +1655,23 @@
         <v>44813</v>
       </c>
       <c r="G26" s="4">
-        <v>44828</v>
+        <f t="shared" si="8"/>
+        <v>44851</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I26" s="1">
         <v>10</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="3"/>
-        <v>5298</v>
+        <v>5528</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1676,22 +1699,23 @@
         <v>44813</v>
       </c>
       <c r="G27" s="4">
-        <v>44829</v>
+        <f t="shared" si="8"/>
+        <v>44853</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I27" s="1">
         <v>10</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="3"/>
-        <v>5264</v>
+        <v>5504</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1719,22 +1743,23 @@
         <v>44813</v>
       </c>
       <c r="G28" s="4">
-        <v>44830</v>
+        <f t="shared" si="8"/>
+        <v>44855</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I28" s="1">
         <v>10</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="2"/>
-        <v>170</v>
+        <v>420</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="3"/>
-        <v>5230</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1762,22 +1787,23 @@
         <v>44813</v>
       </c>
       <c r="G29" s="4">
-        <v>44831</v>
+        <f t="shared" si="8"/>
+        <v>44857</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I29" s="1">
         <v>10</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>440</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="3"/>
-        <v>5196</v>
+        <v>5456</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1805,22 +1831,23 @@
         <v>44813</v>
       </c>
       <c r="G30" s="4">
-        <v>44832</v>
+        <f t="shared" si="8"/>
+        <v>44859</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I30" s="1">
         <v>10</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>460</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="3"/>
-        <v>5162</v>
+        <v>5432</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1848,22 +1875,23 @@
         <v>44813</v>
       </c>
       <c r="G31" s="4">
-        <v>44833</v>
+        <f t="shared" si="8"/>
+        <v>44861</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I31" s="1">
         <v>10</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="3"/>
-        <v>5128</v>
+        <v>5408</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1891,22 +1919,23 @@
         <v>44813</v>
       </c>
       <c r="G32" s="4">
-        <v>44834</v>
+        <f t="shared" si="8"/>
+        <v>44863</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I32" s="1">
         <v>10</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="2"/>
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="3"/>
-        <v>5094</v>
+        <v>5384</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1934,22 +1963,23 @@
         <v>44813</v>
       </c>
       <c r="G33" s="4">
-        <v>44835</v>
+        <f t="shared" si="8"/>
+        <v>44865</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I33" s="1">
         <v>10</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>520</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="3"/>
-        <v>5060</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1977,22 +2007,23 @@
         <v>44813</v>
       </c>
       <c r="G34" s="4">
-        <v>44836</v>
+        <f t="shared" si="8"/>
+        <v>44867</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I34" s="1">
         <v>10</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="2"/>
-        <v>230</v>
+        <v>540</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="3"/>
-        <v>5026</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2020,22 +2051,23 @@
         <v>44813</v>
       </c>
       <c r="G35" s="4">
-        <v>44837</v>
+        <f t="shared" si="8"/>
+        <v>44869</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="I35" s="1">
         <v>10</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>560</v>
       </c>
       <c r="K35" s="1">
         <f>E35+J35</f>
-        <v>2616</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2051,11 +2083,11 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="8">D4/2</f>
+        <f t="shared" ref="D36:D38" si="9">D4/2</f>
         <v>44</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" ref="E36:E38" si="9">C36*D36</f>
+        <f t="shared" ref="E36:E38" si="10">C36*D36</f>
         <v>2354</v>
       </c>
       <c r="F36" s="4">
@@ -2063,22 +2095,23 @@
         <v>44813</v>
       </c>
       <c r="G36" s="4">
-        <v>44838</v>
+        <f t="shared" si="8"/>
+        <v>44871</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I36" s="1">
         <v>10</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>2604</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2094,11 +2127,11 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2332</v>
       </c>
       <c r="F37" s="4">
@@ -2106,22 +2139,23 @@
         <v>44813</v>
       </c>
       <c r="G37" s="4">
-        <v>44839</v>
+        <f t="shared" si="8"/>
+        <v>44873</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I37" s="1">
         <v>10</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="K37" s="1">
         <f>E37+J37</f>
-        <v>2592</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2137,11 +2171,11 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2310</v>
       </c>
       <c r="F38" s="4">
@@ -2149,22 +2183,23 @@
         <v>44813</v>
       </c>
       <c r="G38" s="4">
-        <v>44840</v>
+        <f t="shared" si="8"/>
+        <v>44875</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I38" s="1">
         <v>10</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="2"/>
-        <v>270</v>
+        <v>620</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>2580</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2173,7 +2208,7 @@
       </c>
       <c r="C40" s="1">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>188448</v>
+        <v>194588</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2191,7 +2226,7 @@
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">

--- a/LR3/table_1_80.xlsx
+++ b/LR3/table_1_80.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D296E5DA-C2D3-453F-9FC0-E1A33CB8A6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5018383D-E07D-42B5-B2EF-4900299E3C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFA9CA84-5987-4045-B24F-9DA0184FA81E}"/>
   </bookViews>
@@ -564,7 +564,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -687,14 +687,15 @@
         <v>44813</v>
       </c>
       <c r="G4" s="4">
-        <f>G3+2</f>
-        <v>44807</v>
+        <f>G3+1</f>
+        <v>44806</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -731,14 +732,15 @@
         <v>44813</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G38" si="8">G4+2</f>
-        <v>44809</v>
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
+        <v>44807</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -776,13 +778,14 @@
       </c>
       <c r="G6" s="4">
         <f t="shared" si="8"/>
-        <v>44811</v>
+        <v>44808</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -820,13 +823,14 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" si="8"/>
-        <v>44813</v>
+        <v>44809</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -864,22 +868,23 @@
       </c>
       <c r="G8" s="4">
         <f t="shared" si="8"/>
-        <v>44815</v>
+        <v>44810</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="3"/>
-        <v>5960</v>
+        <v>5940</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -908,22 +913,23 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="8"/>
-        <v>44817</v>
+        <v>44811</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="3"/>
-        <v>5936</v>
+        <v>5896</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -952,22 +958,23 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" si="8"/>
-        <v>44819</v>
+        <v>44812</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="3"/>
-        <v>5912</v>
+        <v>5852</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -996,22 +1003,23 @@
       </c>
       <c r="G11" s="4">
         <f t="shared" si="8"/>
-        <v>44821</v>
+        <v>44813</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>5888</v>
+        <v>5808</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1040,22 +1048,23 @@
       </c>
       <c r="G12" s="4">
         <f t="shared" si="8"/>
-        <v>44823</v>
+        <v>44814</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="3"/>
-        <v>5864</v>
+        <v>5774</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1084,22 +1093,23 @@
       </c>
       <c r="G13" s="4">
         <f t="shared" si="8"/>
-        <v>44825</v>
+        <v>44815</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>5840</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1128,22 +1138,23 @@
       </c>
       <c r="G14" s="4">
         <f t="shared" si="8"/>
-        <v>44827</v>
+        <v>44816</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>5816</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1172,22 +1183,23 @@
       </c>
       <c r="G15" s="4">
         <f t="shared" si="8"/>
-        <v>44829</v>
+        <v>44817</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="3"/>
-        <v>5792</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1216,22 +1228,23 @@
       </c>
       <c r="G16" s="4">
         <f t="shared" si="8"/>
-        <v>44831</v>
+        <v>44818</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="3"/>
-        <v>5768</v>
+        <v>5638</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1260,22 +1273,23 @@
       </c>
       <c r="G17" s="4">
         <f t="shared" si="8"/>
-        <v>44833</v>
+        <v>44819</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="3"/>
-        <v>5744</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1304,22 +1318,23 @@
       </c>
       <c r="G18" s="4">
         <f t="shared" si="8"/>
-        <v>44835</v>
+        <v>44820</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="3"/>
-        <v>5720</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1348,22 +1363,23 @@
       </c>
       <c r="G19" s="4">
         <f t="shared" si="8"/>
-        <v>44837</v>
+        <v>44821</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
         <f>H19*I19</f>
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>5696</v>
+        <v>5536</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1392,22 +1408,23 @@
       </c>
       <c r="G20" s="4">
         <f t="shared" si="8"/>
-        <v>44839</v>
+        <v>44822</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="K20" s="1">
         <f>E20+J20</f>
-        <v>5672</v>
+        <v>5502</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1436,22 +1453,23 @@
       </c>
       <c r="G21" s="4">
         <f t="shared" si="8"/>
-        <v>44841</v>
+        <v>44823</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="2"/>
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="3"/>
-        <v>5648</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1480,22 +1498,23 @@
       </c>
       <c r="G22" s="4">
         <f t="shared" si="8"/>
-        <v>44843</v>
+        <v>44824</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="3"/>
-        <v>5624</v>
+        <v>5434</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1524,22 +1543,23 @@
       </c>
       <c r="G23" s="4">
         <f t="shared" si="8"/>
-        <v>44845</v>
+        <v>44825</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="2"/>
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="3"/>
-        <v>5600</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1568,22 +1588,23 @@
       </c>
       <c r="G24" s="4">
         <f t="shared" si="8"/>
-        <v>44847</v>
+        <v>44826</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="2"/>
-        <v>340</v>
+        <v>130</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="3"/>
-        <v>5576</v>
+        <v>5366</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1612,22 +1633,23 @@
       </c>
       <c r="G25" s="4">
         <f t="shared" si="8"/>
-        <v>44849</v>
+        <v>44827</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>140</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="3"/>
-        <v>5552</v>
+        <v>5332</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1656,22 +1678,23 @@
       </c>
       <c r="G26" s="4">
         <f t="shared" si="8"/>
-        <v>44851</v>
+        <v>44828</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="2"/>
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="3"/>
-        <v>5528</v>
+        <v>5298</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1700,22 +1723,23 @@
       </c>
       <c r="G27" s="4">
         <f t="shared" si="8"/>
-        <v>44853</v>
+        <v>44829</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="3"/>
-        <v>5504</v>
+        <v>5264</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1744,22 +1768,23 @@
       </c>
       <c r="G28" s="4">
         <f t="shared" si="8"/>
-        <v>44855</v>
+        <v>44830</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="2"/>
-        <v>420</v>
+        <v>170</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="3"/>
-        <v>5480</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1788,22 +1813,23 @@
       </c>
       <c r="G29" s="4">
         <f t="shared" si="8"/>
-        <v>44857</v>
+        <v>44831</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="2"/>
-        <v>440</v>
+        <v>180</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="3"/>
-        <v>5456</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1832,22 +1858,23 @@
       </c>
       <c r="G30" s="4">
         <f t="shared" si="8"/>
-        <v>44859</v>
+        <v>44832</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="2"/>
-        <v>460</v>
+        <v>190</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="3"/>
-        <v>5432</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1876,22 +1903,23 @@
       </c>
       <c r="G31" s="4">
         <f t="shared" si="8"/>
-        <v>44861</v>
+        <v>44833</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="3"/>
-        <v>5408</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1920,22 +1948,23 @@
       </c>
       <c r="G32" s="4">
         <f t="shared" si="8"/>
-        <v>44863</v>
+        <v>44834</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="3"/>
-        <v>5384</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1964,22 +1993,23 @@
       </c>
       <c r="G33" s="4">
         <f t="shared" si="8"/>
-        <v>44865</v>
+        <v>44835</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="2"/>
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="3"/>
-        <v>5360</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -2008,22 +2038,23 @@
       </c>
       <c r="G34" s="4">
         <f t="shared" si="8"/>
-        <v>44867</v>
+        <v>44836</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="2"/>
-        <v>540</v>
+        <v>230</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="3"/>
-        <v>5336</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2052,22 +2083,23 @@
       </c>
       <c r="G35" s="4">
         <f t="shared" si="8"/>
-        <v>44869</v>
+        <v>44837</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="2"/>
-        <v>560</v>
+        <v>240</v>
       </c>
       <c r="K35" s="1">
         <f>E35+J35</f>
-        <v>2936</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2083,11 +2115,11 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="9">D4/2</f>
+        <f t="shared" ref="D36:D38" si="10">D4/2</f>
         <v>44</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" ref="E36:E38" si="10">C36*D36</f>
+        <f t="shared" ref="E36:E38" si="11">C36*D36</f>
         <v>2354</v>
       </c>
       <c r="F36" s="4">
@@ -2096,22 +2128,23 @@
       </c>
       <c r="G36" s="4">
         <f t="shared" si="8"/>
-        <v>44871</v>
+        <v>44838</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>250</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>2934</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2127,11 +2160,11 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2332</v>
       </c>
       <c r="F37" s="4">
@@ -2140,22 +2173,23 @@
       </c>
       <c r="G37" s="4">
         <f t="shared" si="8"/>
-        <v>44873</v>
+        <v>44839</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>260</v>
       </c>
       <c r="K37" s="1">
         <f>E37+J37</f>
-        <v>2932</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2171,11 +2205,11 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2310</v>
       </c>
       <c r="F38" s="4">
@@ -2184,22 +2218,23 @@
       </c>
       <c r="G38" s="4">
         <f t="shared" si="8"/>
-        <v>44875</v>
+        <v>44840</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="2"/>
-        <v>620</v>
+        <v>270</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>2930</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2208,7 +2243,7 @@
       </c>
       <c r="C40" s="1">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>194588</v>
+        <v>188448</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2226,7 +2261,7 @@
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">

--- a/LR3/table_1_80.xlsx
+++ b/LR3/table_1_80.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5018383D-E07D-42B5-B2EF-4900299E3C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76B5A57-A7C1-4AF7-931C-02D8BD3F5D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFA9CA84-5987-4045-B24F-9DA0184FA81E}"/>
   </bookViews>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDDE94F-463A-41AC-80A3-881C15FD3A0B}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LR3/table_1_80.xlsx
+++ b/LR3/table_1_80.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76B5A57-A7C1-4AF7-931C-02D8BD3F5D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1DA03C-1BE8-4C26-9E6D-A099601C83A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFA9CA84-5987-4045-B24F-9DA0184FA81E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDDE94F-463A-41AC-80A3-881C15FD3A0B}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2115,11 +2115,11 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <f>D3/2</f>
         <v>44</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" ref="E36:E38" si="11">C36*D36</f>
+        <f t="shared" ref="E36:E38" si="10">C36*D36</f>
         <v>2354</v>
       </c>
       <c r="F36" s="4">
@@ -2160,11 +2160,11 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
+        <f>D3/2</f>
+        <v>44</v>
+      </c>
+      <c r="E37" s="1">
         <f t="shared" si="10"/>
-        <v>44</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="11"/>
         <v>2332</v>
       </c>
       <c r="F37" s="4">
@@ -2205,11 +2205,11 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
+        <f>D3/2</f>
+        <v>44</v>
+      </c>
+      <c r="E38" s="1">
         <f t="shared" si="10"/>
-        <v>44</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="11"/>
         <v>2310</v>
       </c>
       <c r="F38" s="4">

--- a/LR3/table_1_80.xlsx
+++ b/LR3/table_1_80.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1DA03C-1BE8-4C26-9E6D-A099601C83A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A72F4D1-2850-4F18-9C95-D8E496107ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFA9CA84-5987-4045-B24F-9DA0184FA81E}"/>
   </bookViews>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDDE94F-463A-41AC-80A3-881C15FD3A0B}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2269,7 +2269,7 @@
         <v>49</v>
       </c>
       <c r="C43" s="1">
-        <f>MAX(E3:E38)</f>
+        <f>MAX(K3:K38)</f>
         <v>6160</v>
       </c>
     </row>

--- a/LR3/table_1_80.xlsx
+++ b/LR3/table_1_80.xlsx
@@ -527,7 +527,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -546,7 +548,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>80</v>
       </c>
     </row>
@@ -596,7 +598,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>80*1.1</f>
+        <f>$A$1*1.1</f>
         <v>88</v>
       </c>
       <c r="E3" s="1">

--- a/LR3/table_1_80.xlsx
+++ b/LR3/table_1_80.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9672" windowHeight="4656"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -527,9 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="112" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -640,15 +638,15 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>$D$3</f>
+        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>88</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>6116</v>
       </c>
       <c r="F4" s="4">
-        <f>F3</f>
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="4">
@@ -656,7 +654,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -664,36 +662,36 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>6116</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <f t="shared" ref="A5:A37" si="4">A4+1</f>
+        <f t="shared" ref="A5:A37" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D34" si="6">$D$3</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6072</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F38" si="7">F4</f>
+        <f t="shared" ref="F5:F38" si="7">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
@@ -701,7 +699,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -709,32 +707,32 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6072</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6028</v>
       </c>
       <c r="F6" s="4">
@@ -746,7 +744,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -754,32 +752,32 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6028</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5984</v>
       </c>
       <c r="F7" s="4">
@@ -791,7 +789,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -799,32 +797,32 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5984</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5940</v>
       </c>
       <c r="F8" s="4">
@@ -836,7 +834,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -844,32 +842,32 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5940</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5896</v>
       </c>
       <c r="F9" s="4">
@@ -881,7 +879,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -889,32 +887,32 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5896</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5852</v>
       </c>
       <c r="F10" s="4">
@@ -926,7 +924,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -934,32 +932,32 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5852</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5808</v>
       </c>
       <c r="F11" s="4">
@@ -971,7 +969,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -979,32 +977,32 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5808</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5764</v>
       </c>
       <c r="F12" s="4">
@@ -1016,7 +1014,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1024,32 +1022,32 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5774</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5720</v>
       </c>
       <c r="F13" s="4">
@@ -1061,7 +1059,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1069,32 +1067,32 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5740</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5676</v>
       </c>
       <c r="F14" s="4">
@@ -1106,7 +1104,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1114,32 +1112,32 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5706</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5632</v>
       </c>
       <c r="F15" s="4">
@@ -1151,7 +1149,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1159,32 +1157,32 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5672</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5588</v>
       </c>
       <c r="F16" s="4">
@@ -1196,7 +1194,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1204,32 +1202,32 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5638</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5544</v>
       </c>
       <c r="F17" s="4">
@@ -1241,7 +1239,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1249,32 +1247,32 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5604</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5500</v>
       </c>
       <c r="F18" s="4">
@@ -1286,7 +1284,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1294,32 +1292,32 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5570</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5456</v>
       </c>
       <c r="F19" s="4">
@@ -1331,7 +1329,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1339,32 +1337,32 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5536</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5412</v>
       </c>
       <c r="F20" s="4">
@@ -1376,7 +1374,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1384,32 +1382,32 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5502</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5368</v>
       </c>
       <c r="F21" s="4">
@@ -1421,7 +1419,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1429,32 +1427,32 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5468</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5324</v>
       </c>
       <c r="F22" s="4">
@@ -1466,7 +1464,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1474,32 +1472,32 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5434</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5280</v>
       </c>
       <c r="F23" s="4">
@@ -1511,7 +1509,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1519,32 +1517,32 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5400</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5236</v>
       </c>
       <c r="F24" s="4">
@@ -1556,7 +1554,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1564,32 +1562,32 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5366</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5192</v>
       </c>
       <c r="F25" s="4">
@@ -1601,7 +1599,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1609,32 +1607,32 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5332</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5148</v>
       </c>
       <c r="F26" s="4">
@@ -1646,7 +1644,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1654,32 +1652,32 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5298</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5104</v>
       </c>
       <c r="F27" s="4">
@@ -1691,7 +1689,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1699,32 +1697,32 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5264</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5060</v>
       </c>
       <c r="F28" s="4">
@@ -1736,7 +1734,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1744,32 +1742,32 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5230</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5016</v>
       </c>
       <c r="F29" s="4">
@@ -1781,7 +1779,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1789,32 +1787,32 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5196</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4972</v>
       </c>
       <c r="F30" s="4">
@@ -1826,7 +1824,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1834,32 +1832,32 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5162</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4928</v>
       </c>
       <c r="F31" s="4">
@@ -1871,7 +1869,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1879,32 +1877,32 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5128</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4884</v>
       </c>
       <c r="F32" s="4">
@@ -1916,7 +1914,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1924,32 +1922,32 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5094</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4840</v>
       </c>
       <c r="F33" s="4">
@@ -1961,7 +1959,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -1969,32 +1967,32 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5060</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4796</v>
       </c>
       <c r="F34" s="4">
@@ -2006,7 +2004,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -2014,32 +2012,32 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5026</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$D$3/2</f>
+        <f t="shared" ref="D35:D37" si="10">$A$1*1.1/2</f>
         <v>44</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2376</v>
       </c>
       <c r="F35" s="4">
@@ -2051,7 +2049,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2059,32 +2057,32 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2616</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2354</v>
       </c>
       <c r="F36" s="4">
@@ -2096,7 +2094,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2104,24 +2102,24 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2604</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
@@ -2129,7 +2127,7 @@
         <v>44</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2332</v>
       </c>
       <c r="F37" s="4">
@@ -2141,7 +2139,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2149,11 +2147,11 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2592</v>
       </c>
     </row>
@@ -2166,15 +2164,15 @@
         <v>31</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="10"/>
+        <f>$A$1*1.1/2</f>
         <v>44</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2310</v>
       </c>
       <c r="F38" s="4">
@@ -2186,7 +2184,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
@@ -2194,11 +2192,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2580</v>
       </c>
     </row>
